--- a/data/code_flow/BinarySearchStrings.xlsx
+++ b/data/code_flow/BinarySearchStrings.xlsx
@@ -8,18 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
+    <sheet name="values" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>start</t>
   </si>
   <si>
     <t>stop</t>
+  </si>
+  <si>
+    <t>code flow</t>
   </si>
 </sst>
 </file>
@@ -650,4 +654,137 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>